--- a/data/Root_dmg_20.xlsx
+++ b/data/Root_dmg_20.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6B4E08-6BB8-4395-A582-C1858B2A3657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{CA6B4E08-6BB8-4395-A582-C1858B2A3657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B293D8E-2D5F-4933-A1E5-7A6FDE262F8D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{1763FC28-A486-4426-BD00-6F7CA94555A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Daño en raiz (20 repl.)" sheetId="1" r:id="rId1"/>
+    <sheet name="Root dmg (20 reps.)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,24 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="10">
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>ID Parcela</t>
-  </si>
-  <si>
-    <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>Repetición</t>
-  </si>
-  <si>
-    <t>Peso biomasa raiz</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
     <t>FE</t>
   </si>
   <si>
@@ -66,6 +48,24 @@
   </si>
   <si>
     <t>FO</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Root_weight</t>
+  </si>
+  <si>
+    <t>Observations</t>
   </si>
 </sst>
 </file>
@@ -245,12 +245,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB03440F-AD60-46B4-A0CD-8B148414DC9E}" name="Tabla535" displayName="Tabla535" ref="A1:F485" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F485" xr:uid="{7F76055B-7275-47D3-8C12-1235C3A8AA54}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{909839C7-F19B-43C3-B621-703AED9169CE}" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E634E4E8-EE61-4E3A-AF98-D4AED0AC25A3}" name="ID Parcela" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{719DCEC6-572A-4B09-9B89-01E0DE3D84E4}" name="Tratamiento" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D7423F52-C7A3-4AF9-95BD-40FE88DCA23D}" name="Repetición" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{11ECB033-36EA-423E-BD29-2FA714EA3191}" name="Peso biomasa raiz" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B6AECE14-5F77-43BD-B0DD-128A807E961B}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{909839C7-F19B-43C3-B621-703AED9169CE}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E634E4E8-EE61-4E3A-AF98-D4AED0AC25A3}" name="Field" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{719DCEC6-572A-4B09-9B89-01E0DE3D84E4}" name="Treatment" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D7423F52-C7A3-4AF9-95BD-40FE88DCA23D}" name="Repeat" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{11ECB033-36EA-423E-BD29-2FA714EA3191}" name="Root_weight" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B6AECE14-5F77-43BD-B0DD-128A807E961B}" name="Observations" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -556,37 +556,37 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="140.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="93.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
@@ -795,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>13</v>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>16</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>19</v>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <v>7</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>8</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>9</v>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>11</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>12</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>13</v>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>14</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>15</v>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <v>16</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>17</v>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <v>18</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <v>19</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>20</v>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>21</v>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
         <v>22</v>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <v>23</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>24</v>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>25</v>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
         <v>6</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
         <v>7</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
         <v>8</v>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1">
         <v>9</v>
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1">
         <v>10</v>
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
         <v>11</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1">
         <v>12</v>
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1">
         <v>13</v>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
         <v>14</v>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1">
         <v>15</v>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1">
         <v>16</v>
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
         <v>17</v>
@@ -1713,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
         <v>18</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
         <v>19</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1">
         <v>4</v>
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1">
         <v>6</v>
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
         <v>7</v>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1">
         <v>8</v>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1">
         <v>9</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>10</v>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1">
         <v>11</v>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1">
         <v>12</v>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1">
         <v>13</v>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
         <v>14</v>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1">
         <v>15</v>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1">
         <v>16</v>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D83" s="1">
         <v>17</v>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D84" s="1">
         <v>18</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D85" s="1">
         <v>19</v>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D86" s="1">
         <v>20</v>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D87" s="1">
         <v>21</v>
@@ -2145,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D88" s="1">
         <v>22</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D89" s="1">
         <v>23</v>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D90" s="1">
         <v>24</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D91" s="1">
         <v>25</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D92" s="1">
         <v>26</v>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D93" s="1">
         <v>27</v>
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D94" s="1">
         <v>28</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D95" s="1">
         <v>29</v>
@@ -2289,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1">
         <v>2</v>
@@ -2325,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
@@ -2343,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D99" s="1">
         <v>4</v>
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D100" s="1">
         <v>5</v>
@@ -2379,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
         <v>6</v>
@@ -2397,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>7</v>
@@ -2415,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
         <v>8</v>
@@ -2433,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
         <v>9</v>
@@ -2451,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
         <v>10</v>
@@ -2469,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
         <v>11</v>
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D107" s="1">
         <v>12</v>
@@ -2505,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D108" s="1">
         <v>13</v>
@@ -2523,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D109" s="1">
         <v>14</v>
@@ -2541,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D110" s="1">
         <v>15</v>
@@ -2559,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D111" s="1">
         <v>16</v>
@@ -2577,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D112" s="1">
         <v>17</v>
@@ -2595,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D113" s="1">
         <v>18</v>
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
         <v>19</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1">
         <v>20</v>
@@ -2649,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D116" s="1">
         <v>21</v>
@@ -2667,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D117" s="1">
         <v>22</v>
@@ -2685,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D118" s="1">
         <v>23</v>
@@ -2703,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D119" s="1">
         <v>24</v>
@@ -2721,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D120" s="1">
         <v>25</v>
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D121" s="1">
         <v>26</v>
@@ -2757,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D122" s="1">
         <v>27</v>
@@ -2775,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -2811,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D125" s="1">
         <v>3</v>
@@ -2829,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D126" s="1">
         <v>4</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1">
         <v>5</v>
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D128" s="1">
         <v>6</v>
@@ -2883,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D129" s="1">
         <v>7</v>
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -2919,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D131" s="1">
         <v>9</v>
@@ -2937,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D132" s="1">
         <v>10</v>
@@ -2955,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D133" s="1">
         <v>11</v>
@@ -2973,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D134" s="1">
         <v>12</v>
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D135" s="1">
         <v>13</v>
@@ -3009,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1">
         <v>14</v>
@@ -3027,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D137" s="1">
         <v>15</v>
@@ -3045,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1">
         <v>16</v>
@@ -3063,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D139" s="1">
         <v>17</v>
@@ -3081,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D140" s="1">
         <v>18</v>
@@ -3099,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D141" s="1">
         <v>19</v>
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D142" s="1">
         <v>20</v>
@@ -3135,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D143" s="1">
         <v>21</v>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D144" s="1">
         <v>22</v>
@@ -3171,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D145" s="1">
         <v>23</v>
@@ -3189,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D146" s="1">
         <v>24</v>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -3225,7 +3225,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1">
         <v>2</v>
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1">
         <v>3</v>
@@ -3261,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1">
         <v>4</v>
@@ -3279,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D151" s="1">
         <v>5</v>
@@ -3297,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D152" s="1">
         <v>6</v>
@@ -3315,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D153" s="1">
         <v>7</v>
@@ -3333,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1">
         <v>8</v>
@@ -3351,7 +3351,7 @@
         <v>2</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D155" s="1">
         <v>9</v>
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D156" s="1">
         <v>10</v>
@@ -3387,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D157" s="1">
         <v>11</v>
@@ -3405,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D158" s="1">
         <v>12</v>
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D159" s="1">
         <v>13</v>
@@ -3441,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D160" s="1">
         <v>14</v>
@@ -3459,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D161" s="1">
         <v>15</v>
@@ -3477,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D162" s="1">
         <v>16</v>
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D163" s="1">
         <v>17</v>
@@ -3513,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D164" s="1">
         <v>18</v>
@@ -3531,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D165" s="1">
         <v>19</v>
@@ -3549,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D166" s="1">
         <v>20</v>
@@ -3567,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D167" s="1">
         <v>21</v>
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D168" s="1">
         <v>22</v>
@@ -3603,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D170" s="1">
         <v>2</v>
@@ -3639,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D171" s="1">
         <v>3</v>
@@ -3657,7 +3657,7 @@
         <v>2</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D172" s="1">
         <v>4</v>
@@ -3675,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D173" s="1">
         <v>5</v>
@@ -3693,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D174" s="1">
         <v>6</v>
@@ -3711,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D175" s="1">
         <v>7</v>
@@ -3729,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D176" s="1">
         <v>8</v>
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D177" s="1">
         <v>9</v>
@@ -3765,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D178" s="1">
         <v>10</v>
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D179" s="1">
         <v>11</v>
@@ -3801,7 +3801,7 @@
         <v>2</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D180" s="1">
         <v>12</v>
@@ -3819,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D181" s="1">
         <v>13</v>
@@ -3837,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D182" s="1">
         <v>14</v>
@@ -3855,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D183" s="1">
         <v>15</v>
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D184" s="1">
         <v>16</v>
@@ -3891,7 +3891,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D185" s="1">
         <v>17</v>
@@ -3909,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D186" s="1">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         <v>2</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D187" s="1">
         <v>19</v>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D188" s="1">
         <v>20</v>
@@ -3963,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D189" s="1">
         <v>21</v>
@@ -3981,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D190" s="1">
         <v>22</v>
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D191" s="1">
         <v>23</v>
@@ -4017,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D192" s="1">
         <v>24</v>
@@ -4035,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D193" s="1">
         <v>25</v>
@@ -4053,7 +4053,7 @@
         <v>2</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D194" s="1">
         <v>26</v>
@@ -4071,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -4089,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -4107,7 +4107,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D197" s="1">
         <v>3</v>
@@ -4125,7 +4125,7 @@
         <v>3</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D198" s="1">
         <v>4</v>
@@ -4143,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D199" s="1">
         <v>5</v>
@@ -4161,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D200" s="1">
         <v>6</v>
@@ -4179,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D201" s="1">
         <v>7</v>
@@ -4197,7 +4197,7 @@
         <v>3</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D202" s="1">
         <v>8</v>
@@ -4215,7 +4215,7 @@
         <v>3</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D203" s="1">
         <v>9</v>
@@ -4233,7 +4233,7 @@
         <v>3</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D204" s="1">
         <v>10</v>
@@ -4251,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D205" s="1">
         <v>11</v>
@@ -4269,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D206" s="1">
         <v>12</v>
@@ -4287,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D207" s="1">
         <v>13</v>
@@ -4305,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D208" s="1">
         <v>14</v>
@@ -4323,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D209" s="1">
         <v>15</v>
@@ -4341,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D210" s="1">
         <v>16</v>
@@ -4359,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D211" s="1">
         <v>17</v>
@@ -4377,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D212" s="1">
         <v>18</v>
@@ -4395,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D213" s="1">
         <v>19</v>
@@ -4413,7 +4413,7 @@
         <v>3</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
@@ -4431,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D215" s="1">
         <v>2</v>
@@ -4449,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D216" s="1">
         <v>3</v>
@@ -4467,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D217" s="1">
         <v>4</v>
@@ -4485,7 +4485,7 @@
         <v>3</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D218" s="1">
         <v>5</v>
@@ -4503,7 +4503,7 @@
         <v>3</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D219" s="1">
         <v>6</v>
@@ -4521,7 +4521,7 @@
         <v>3</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D220" s="1">
         <v>7</v>
@@ -4539,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D221" s="1">
         <v>8</v>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D222" s="1">
         <v>9</v>
@@ -4575,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D223" s="1">
         <v>10</v>
@@ -4593,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D224" s="1">
         <v>11</v>
@@ -4611,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D225" s="1">
         <v>12</v>
@@ -4629,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D226" s="1">
         <v>13</v>
@@ -4647,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D227" s="1">
         <v>14</v>
@@ -4665,7 +4665,7 @@
         <v>3</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D228" s="1">
         <v>15</v>
@@ -4683,7 +4683,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D229" s="1">
         <v>16</v>
@@ -4701,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D230" s="1">
         <v>17</v>
@@ -4719,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D231" s="1">
         <v>18</v>
@@ -4737,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D232" s="1">
         <v>19</v>
@@ -4755,7 +4755,7 @@
         <v>3</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D233" s="1">
         <v>20</v>
@@ -4773,7 +4773,7 @@
         <v>3</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D234" s="1">
         <v>21</v>
@@ -4791,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D235" s="1">
         <v>22</v>
@@ -4809,7 +4809,7 @@
         <v>3</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D236" s="1">
         <v>23</v>
@@ -4827,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D237" s="1">
         <v>1</v>
@@ -4845,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D238" s="1">
         <v>2</v>
@@ -4863,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D239" s="1">
         <v>3</v>
@@ -4881,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D240" s="1">
         <v>4</v>
@@ -4899,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D241" s="1">
         <v>5</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D242" s="1">
         <v>6</v>
@@ -4935,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D243" s="1">
         <v>7</v>
@@ -4953,7 +4953,7 @@
         <v>3</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D244" s="1">
         <v>8</v>
@@ -4971,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D245" s="1">
         <v>9</v>
@@ -4989,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D246" s="1">
         <v>10</v>
@@ -5007,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D247" s="1">
         <v>11</v>
@@ -5025,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D248" s="1">
         <v>12</v>
@@ -5043,7 +5043,7 @@
         <v>3</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D249" s="1">
         <v>13</v>
@@ -5061,7 +5061,7 @@
         <v>3</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D250" s="1">
         <v>14</v>
@@ -5079,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D251" s="1">
         <v>15</v>
@@ -5097,7 +5097,7 @@
         <v>3</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D252" s="1">
         <v>16</v>
@@ -5115,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D253" s="1">
         <v>17</v>
@@ -5133,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D254" s="1">
         <v>18</v>
@@ -5151,7 +5151,7 @@
         <v>3</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D255" s="1">
         <v>19</v>
@@ -5169,7 +5169,7 @@
         <v>3</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D256" s="1">
         <v>20</v>
@@ -5187,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D257" s="1">
         <v>21</v>
@@ -5205,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D258" s="1">
         <v>22</v>
@@ -5223,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -5241,7 +5241,7 @@
         <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D260" s="1">
         <v>2</v>
@@ -5259,7 +5259,7 @@
         <v>3</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D261" s="1">
         <v>3</v>
@@ -5277,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D262" s="1">
         <v>4</v>
@@ -5295,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D263" s="1">
         <v>5</v>
@@ -5313,7 +5313,7 @@
         <v>3</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D264" s="1">
         <v>6</v>
@@ -5331,7 +5331,7 @@
         <v>3</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D265" s="1">
         <v>7</v>
@@ -5349,7 +5349,7 @@
         <v>3</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D266" s="1">
         <v>8</v>
@@ -5367,7 +5367,7 @@
         <v>3</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D267" s="1">
         <v>9</v>
@@ -5385,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D268" s="1">
         <v>10</v>
@@ -5403,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D269" s="1">
         <v>11</v>
@@ -5421,7 +5421,7 @@
         <v>3</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D270" s="1">
         <v>12</v>
@@ -5439,7 +5439,7 @@
         <v>3</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D271" s="1">
         <v>13</v>
@@ -5457,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D272" s="1">
         <v>14</v>
@@ -5475,7 +5475,7 @@
         <v>3</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D273" s="1">
         <v>15</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D274" s="1">
         <v>16</v>
@@ -5511,7 +5511,7 @@
         <v>3</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D275" s="1">
         <v>17</v>
@@ -5529,7 +5529,7 @@
         <v>3</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D276" s="1">
         <v>18</v>
@@ -5547,7 +5547,7 @@
         <v>3</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D277" s="1">
         <v>19</v>
@@ -5565,7 +5565,7 @@
         <v>3</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D278" s="1">
         <v>20</v>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D279" s="1">
         <v>21</v>
@@ -5601,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D280" s="1">
         <v>22</v>
@@ -5619,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D281" s="1">
         <v>23</v>
@@ -5637,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D282" s="1">
         <v>24</v>
@@ -5655,7 +5655,7 @@
         <v>3</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D283" s="1">
         <v>25</v>
@@ -5673,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D284" s="1">
         <v>26</v>
@@ -5691,7 +5691,7 @@
         <v>3</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D285" s="1">
         <v>27</v>
@@ -5709,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D286" s="1">
         <v>1</v>
@@ -5727,7 +5727,7 @@
         <v>4</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D287" s="1">
         <v>2</v>
@@ -5745,7 +5745,7 @@
         <v>4</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D288" s="1">
         <v>3</v>
@@ -5763,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D289" s="1">
         <v>4</v>
@@ -5781,7 +5781,7 @@
         <v>4</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D290" s="1">
         <v>5</v>
@@ -5799,7 +5799,7 @@
         <v>4</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D291" s="1">
         <v>6</v>
@@ -5817,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D292" s="1">
         <v>7</v>
@@ -5835,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D293" s="1">
         <v>8</v>
@@ -5853,7 +5853,7 @@
         <v>4</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D294" s="1">
         <v>9</v>
@@ -5871,7 +5871,7 @@
         <v>4</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D295" s="1">
         <v>10</v>
@@ -5889,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D296" s="1">
         <v>11</v>
@@ -5907,7 +5907,7 @@
         <v>4</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D297" s="1">
         <v>12</v>
@@ -5925,7 +5925,7 @@
         <v>4</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D298" s="1">
         <v>13</v>
@@ -5943,7 +5943,7 @@
         <v>4</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D299" s="1">
         <v>14</v>
@@ -5961,7 +5961,7 @@
         <v>4</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D300" s="1">
         <v>15</v>
@@ -5979,7 +5979,7 @@
         <v>4</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D301" s="1">
         <v>16</v>
@@ -5997,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D302" s="1">
         <v>17</v>
@@ -6015,7 +6015,7 @@
         <v>4</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D303" s="1">
         <v>18</v>
@@ -6033,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D304" s="1">
         <v>19</v>
@@ -6051,7 +6051,7 @@
         <v>4</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D305" s="1">
         <v>20</v>
@@ -6069,7 +6069,7 @@
         <v>4</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D306" s="1">
         <v>21</v>
@@ -6087,7 +6087,7 @@
         <v>4</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D307" s="1">
         <v>22</v>
@@ -6105,7 +6105,7 @@
         <v>4</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D308" s="1">
         <v>23</v>
@@ -6123,7 +6123,7 @@
         <v>4</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D309" s="1">
         <v>1</v>
@@ -6141,7 +6141,7 @@
         <v>4</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D310" s="1">
         <v>2</v>
@@ -6159,7 +6159,7 @@
         <v>4</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D311" s="1">
         <v>3</v>
@@ -6177,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D312" s="1">
         <v>4</v>
@@ -6195,7 +6195,7 @@
         <v>4</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D313" s="1">
         <v>5</v>
@@ -6213,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D314" s="1">
         <v>6</v>
@@ -6231,7 +6231,7 @@
         <v>4</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D315" s="1">
         <v>7</v>
@@ -6249,7 +6249,7 @@
         <v>4</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D316" s="1">
         <v>8</v>
@@ -6267,7 +6267,7 @@
         <v>4</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D317" s="1">
         <v>9</v>
@@ -6285,7 +6285,7 @@
         <v>4</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D318" s="1">
         <v>10</v>
@@ -6303,7 +6303,7 @@
         <v>4</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D319" s="1">
         <v>11</v>
@@ -6321,7 +6321,7 @@
         <v>4</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D320" s="1">
         <v>12</v>
@@ -6339,7 +6339,7 @@
         <v>4</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D321" s="1">
         <v>13</v>
@@ -6357,7 +6357,7 @@
         <v>4</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D322" s="1">
         <v>14</v>
@@ -6375,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D323" s="1">
         <v>15</v>
@@ -6393,7 +6393,7 @@
         <v>4</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D324" s="1">
         <v>16</v>
@@ -6411,7 +6411,7 @@
         <v>4</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D325" s="1">
         <v>17</v>
@@ -6429,7 +6429,7 @@
         <v>4</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D326" s="1">
         <v>18</v>
@@ -6447,7 +6447,7 @@
         <v>4</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D327" s="1">
         <v>19</v>
@@ -6465,7 +6465,7 @@
         <v>4</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D328" s="1">
         <v>20</v>
@@ -6483,7 +6483,7 @@
         <v>4</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D329" s="1">
         <v>21</v>
@@ -6501,7 +6501,7 @@
         <v>4</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D330" s="1">
         <v>22</v>
@@ -6519,7 +6519,7 @@
         <v>4</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D331" s="1">
         <v>23</v>
@@ -6537,7 +6537,7 @@
         <v>4</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D332" s="1">
         <v>1</v>
@@ -6555,7 +6555,7 @@
         <v>4</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
@@ -6573,7 +6573,7 @@
         <v>4</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D334" s="1">
         <v>3</v>
@@ -6591,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D335" s="1">
         <v>4</v>
@@ -6609,7 +6609,7 @@
         <v>4</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D336" s="1">
         <v>5</v>
@@ -6627,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D337" s="1">
         <v>6</v>
@@ -6645,7 +6645,7 @@
         <v>4</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D338" s="1">
         <v>7</v>
@@ -6663,7 +6663,7 @@
         <v>4</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D339" s="1">
         <v>8</v>
@@ -6681,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D340" s="1">
         <v>9</v>
@@ -6699,7 +6699,7 @@
         <v>4</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D341" s="1">
         <v>10</v>
@@ -6717,7 +6717,7 @@
         <v>4</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D342" s="1">
         <v>11</v>
@@ -6735,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D343" s="1">
         <v>12</v>
@@ -6753,7 +6753,7 @@
         <v>4</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D344" s="1">
         <v>13</v>
@@ -6771,7 +6771,7 @@
         <v>4</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D345" s="1">
         <v>14</v>
@@ -6789,7 +6789,7 @@
         <v>4</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D346" s="1">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         <v>4</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D347" s="1">
         <v>16</v>
@@ -6825,7 +6825,7 @@
         <v>4</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D348" s="1">
         <v>17</v>
@@ -6843,7 +6843,7 @@
         <v>4</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D349" s="1">
         <v>18</v>
@@ -6861,7 +6861,7 @@
         <v>4</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D350" s="1">
         <v>19</v>
@@ -6879,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D351" s="1">
         <v>20</v>
@@ -6897,7 +6897,7 @@
         <v>4</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D352" s="1">
         <v>21</v>
@@ -6915,7 +6915,7 @@
         <v>4</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D353" s="1">
         <v>22</v>
@@ -6933,7 +6933,7 @@
         <v>4</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D354" s="1">
         <v>23</v>
@@ -6951,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D355" s="1">
         <v>24</v>
@@ -6969,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D356" s="1">
         <v>25</v>
@@ -6987,7 +6987,7 @@
         <v>4</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D357" s="1">
         <v>26</v>
@@ -7005,7 +7005,7 @@
         <v>4</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D358" s="1">
         <v>27</v>
@@ -7023,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D359" s="1">
         <v>1</v>
@@ -7041,7 +7041,7 @@
         <v>4</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D360" s="1">
         <v>2</v>
@@ -7059,7 +7059,7 @@
         <v>4</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D361" s="1">
         <v>3</v>
@@ -7077,7 +7077,7 @@
         <v>4</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D362" s="1">
         <v>4</v>
@@ -7095,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D363" s="1">
         <v>5</v>
@@ -7113,7 +7113,7 @@
         <v>4</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D364" s="1">
         <v>6</v>
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D365" s="1">
         <v>7</v>
@@ -7149,7 +7149,7 @@
         <v>4</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D366" s="1">
         <v>8</v>
@@ -7167,7 +7167,7 @@
         <v>4</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D367" s="1">
         <v>9</v>
@@ -7185,7 +7185,7 @@
         <v>4</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D368" s="1">
         <v>10</v>
@@ -7203,7 +7203,7 @@
         <v>4</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D369" s="1">
         <v>11</v>
@@ -7221,7 +7221,7 @@
         <v>4</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D370" s="1">
         <v>12</v>
@@ -7239,7 +7239,7 @@
         <v>4</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D371" s="1">
         <v>13</v>
@@ -7257,7 +7257,7 @@
         <v>4</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D372" s="1">
         <v>14</v>
@@ -7275,7 +7275,7 @@
         <v>4</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D373" s="1">
         <v>15</v>
@@ -7293,7 +7293,7 @@
         <v>4</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D374" s="1">
         <v>16</v>
@@ -7311,7 +7311,7 @@
         <v>4</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D375" s="1">
         <v>17</v>
@@ -7329,7 +7329,7 @@
         <v>4</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D376" s="1">
         <v>18</v>
@@ -7347,7 +7347,7 @@
         <v>4</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D377" s="1">
         <v>19</v>
@@ -7365,7 +7365,7 @@
         <v>5</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D378" s="1">
         <v>1</v>
@@ -7383,7 +7383,7 @@
         <v>5</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D379" s="1">
         <v>2</v>
@@ -7401,7 +7401,7 @@
         <v>5</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D380" s="1">
         <v>3</v>
@@ -7419,7 +7419,7 @@
         <v>5</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D381" s="1">
         <v>4</v>
@@ -7437,7 +7437,7 @@
         <v>5</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D382" s="1">
         <v>5</v>
@@ -7455,7 +7455,7 @@
         <v>5</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D383" s="1">
         <v>6</v>
@@ -7473,7 +7473,7 @@
         <v>5</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D384" s="1">
         <v>7</v>
@@ -7491,7 +7491,7 @@
         <v>5</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D385" s="1">
         <v>8</v>
@@ -7509,7 +7509,7 @@
         <v>5</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D386" s="1">
         <v>9</v>
@@ -7527,7 +7527,7 @@
         <v>5</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D387" s="1">
         <v>10</v>
@@ -7545,7 +7545,7 @@
         <v>5</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D388" s="1">
         <v>11</v>
@@ -7563,7 +7563,7 @@
         <v>5</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D389" s="1">
         <v>12</v>
@@ -7581,7 +7581,7 @@
         <v>5</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D390" s="1">
         <v>13</v>
@@ -7599,7 +7599,7 @@
         <v>5</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D391" s="1">
         <v>14</v>
@@ -7617,7 +7617,7 @@
         <v>5</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D392" s="1">
         <v>15</v>
@@ -7635,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D393" s="1">
         <v>16</v>
@@ -7653,7 +7653,7 @@
         <v>5</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D394" s="1">
         <v>17</v>
@@ -7671,7 +7671,7 @@
         <v>5</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D395" s="1">
         <v>18</v>
@@ -7689,7 +7689,7 @@
         <v>5</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D396" s="1">
         <v>19</v>
@@ -7707,7 +7707,7 @@
         <v>5</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D397" s="1">
         <v>20</v>
@@ -7725,7 +7725,7 @@
         <v>5</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D398" s="1">
         <v>21</v>
@@ -7743,7 +7743,7 @@
         <v>5</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D399" s="1">
         <v>22</v>
@@ -7761,7 +7761,7 @@
         <v>5</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D400" s="1">
         <v>23</v>
@@ -7779,7 +7779,7 @@
         <v>5</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D401" s="1">
         <v>24</v>
@@ -7797,7 +7797,7 @@
         <v>5</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D402" s="1">
         <v>25</v>
@@ -7815,7 +7815,7 @@
         <v>5</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D403" s="1">
         <v>1</v>
@@ -7833,7 +7833,7 @@
         <v>5</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D404" s="1">
         <v>2</v>
@@ -7851,7 +7851,7 @@
         <v>5</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D405" s="1">
         <v>3</v>
@@ -7869,7 +7869,7 @@
         <v>5</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D406" s="1">
         <v>4</v>
@@ -7887,7 +7887,7 @@
         <v>5</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D407" s="1">
         <v>5</v>
@@ -7905,7 +7905,7 @@
         <v>5</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D408" s="1">
         <v>6</v>
@@ -7923,7 +7923,7 @@
         <v>5</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D409" s="1">
         <v>7</v>
@@ -7941,7 +7941,7 @@
         <v>5</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D410" s="1">
         <v>8</v>
@@ -7959,7 +7959,7 @@
         <v>5</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D411" s="1">
         <v>9</v>
@@ -7977,7 +7977,7 @@
         <v>5</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D412" s="1">
         <v>10</v>
@@ -7995,7 +7995,7 @@
         <v>5</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D413" s="1">
         <v>11</v>
@@ -8013,7 +8013,7 @@
         <v>5</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D414" s="1">
         <v>12</v>
@@ -8031,7 +8031,7 @@
         <v>5</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D415" s="1">
         <v>13</v>
@@ -8049,7 +8049,7 @@
         <v>5</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D416" s="1">
         <v>14</v>
@@ -8067,7 +8067,7 @@
         <v>5</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D417" s="1">
         <v>15</v>
@@ -8085,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D418" s="1">
         <v>16</v>
@@ -8103,7 +8103,7 @@
         <v>5</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D419" s="1">
         <v>17</v>
@@ -8121,7 +8121,7 @@
         <v>5</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D420" s="1">
         <v>18</v>
@@ -8139,7 +8139,7 @@
         <v>5</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D421" s="1">
         <v>19</v>
@@ -8157,7 +8157,7 @@
         <v>5</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D422" s="1">
         <v>20</v>
@@ -8175,7 +8175,7 @@
         <v>5</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D423" s="1">
         <v>21</v>
@@ -8193,7 +8193,7 @@
         <v>5</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D424" s="1">
         <v>22</v>
@@ -8211,7 +8211,7 @@
         <v>5</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D425" s="1">
         <v>23</v>
@@ -8229,7 +8229,7 @@
         <v>5</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D426" s="1">
         <v>24</v>
@@ -8247,7 +8247,7 @@
         <v>5</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D427" s="1">
         <v>25</v>
@@ -8265,7 +8265,7 @@
         <v>5</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D428" s="1">
         <v>26</v>
@@ -8283,7 +8283,7 @@
         <v>5</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D429" s="1">
         <v>27</v>
@@ -8301,7 +8301,7 @@
         <v>5</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D430" s="1">
         <v>28</v>
@@ -8319,7 +8319,7 @@
         <v>5</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D431" s="1">
         <v>29</v>
@@ -8337,7 +8337,7 @@
         <v>5</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D432" s="1">
         <v>30</v>
@@ -8355,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D433" s="1">
         <v>31</v>
@@ -8373,7 +8373,7 @@
         <v>5</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D434" s="1">
         <v>32</v>
@@ -8391,7 +8391,7 @@
         <v>5</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D435" s="1">
         <v>33</v>
@@ -8409,7 +8409,7 @@
         <v>5</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D436" s="1">
         <v>34</v>
@@ -8427,7 +8427,7 @@
         <v>5</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D437" s="1">
         <v>35</v>
@@ -8445,7 +8445,7 @@
         <v>5</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D438" s="1">
         <v>36</v>
@@ -8463,7 +8463,7 @@
         <v>5</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D439" s="1">
         <v>1</v>
@@ -8481,7 +8481,7 @@
         <v>5</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D440" s="1">
         <v>2</v>
@@ -8499,7 +8499,7 @@
         <v>5</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D441" s="1">
         <v>3</v>
@@ -8517,7 +8517,7 @@
         <v>5</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D442" s="1">
         <v>4</v>
@@ -8535,7 +8535,7 @@
         <v>5</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D443" s="1">
         <v>5</v>
@@ -8553,7 +8553,7 @@
         <v>5</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D444" s="1">
         <v>6</v>
@@ -8571,7 +8571,7 @@
         <v>5</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D445" s="1">
         <v>7</v>
@@ -8589,7 +8589,7 @@
         <v>5</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D446" s="1">
         <v>8</v>
@@ -8607,7 +8607,7 @@
         <v>5</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D447" s="1">
         <v>9</v>
@@ -8625,7 +8625,7 @@
         <v>5</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D448" s="1">
         <v>10</v>
@@ -8643,7 +8643,7 @@
         <v>5</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D449" s="1">
         <v>11</v>
@@ -8661,7 +8661,7 @@
         <v>5</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D450" s="1">
         <v>12</v>
@@ -8679,7 +8679,7 @@
         <v>5</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D451" s="1">
         <v>13</v>
@@ -8697,7 +8697,7 @@
         <v>5</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D452" s="1">
         <v>14</v>
@@ -8715,7 +8715,7 @@
         <v>5</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D453" s="1">
         <v>15</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D454" s="1">
         <v>16</v>
@@ -8751,7 +8751,7 @@
         <v>5</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D455" s="1">
         <v>17</v>
@@ -8769,7 +8769,7 @@
         <v>5</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D456" s="1">
         <v>18</v>
@@ -8787,7 +8787,7 @@
         <v>5</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D457" s="1">
         <v>19</v>
@@ -8805,7 +8805,7 @@
         <v>5</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D458" s="1">
         <v>20</v>
@@ -8823,7 +8823,7 @@
         <v>5</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D459" s="1">
         <v>21</v>
@@ -8841,7 +8841,7 @@
         <v>5</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D460" s="1">
         <v>1</v>
@@ -8859,7 +8859,7 @@
         <v>5</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D461" s="1">
         <v>2</v>
@@ -8877,7 +8877,7 @@
         <v>5</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D462" s="1">
         <v>3</v>
@@ -8895,7 +8895,7 @@
         <v>5</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D463" s="1">
         <v>4</v>
@@ -8913,7 +8913,7 @@
         <v>5</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D464" s="1">
         <v>5</v>
@@ -8931,7 +8931,7 @@
         <v>5</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D465" s="1">
         <v>6</v>
@@ -8949,7 +8949,7 @@
         <v>5</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D466" s="1">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         <v>5</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D467" s="1">
         <v>8</v>
@@ -8985,7 +8985,7 @@
         <v>5</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D468" s="1">
         <v>9</v>
@@ -9003,7 +9003,7 @@
         <v>5</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D469" s="1">
         <v>10</v>
@@ -9021,7 +9021,7 @@
         <v>5</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D470" s="1">
         <v>11</v>
@@ -9039,7 +9039,7 @@
         <v>5</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D471" s="1">
         <v>12</v>
@@ -9057,7 +9057,7 @@
         <v>5</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D472" s="1">
         <v>13</v>
@@ -9075,7 +9075,7 @@
         <v>5</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D473" s="1">
         <v>14</v>
@@ -9093,7 +9093,7 @@
         <v>5</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D474" s="1">
         <v>15</v>
@@ -9111,7 +9111,7 @@
         <v>5</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D475" s="1">
         <v>16</v>
@@ -9129,7 +9129,7 @@
         <v>5</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D476" s="1">
         <v>17</v>
@@ -9147,7 +9147,7 @@
         <v>5</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D477" s="1">
         <v>18</v>
@@ -9165,7 +9165,7 @@
         <v>5</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D478" s="1">
         <v>19</v>
@@ -9183,7 +9183,7 @@
         <v>5</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D479" s="1">
         <v>20</v>
@@ -9201,7 +9201,7 @@
         <v>5</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D480" s="1">
         <v>21</v>
@@ -9219,7 +9219,7 @@
         <v>5</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D481" s="1">
         <v>22</v>
@@ -9237,7 +9237,7 @@
         <v>5</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D482" s="1">
         <v>23</v>
@@ -9255,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D483" s="1">
         <v>24</v>
@@ -9273,7 +9273,7 @@
         <v>5</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D484" s="1">
         <v>25</v>
@@ -9291,7 +9291,7 @@
         <v>5</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D485" s="1">
         <v>26</v>
